--- a/DHPPSP_ECCPT.xlsx
+++ b/DHPPSP_ECCPT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowHeight="15800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="18" r:id="rId1"/>
@@ -2441,33 +2441,33 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
     <col min="2" max="3" width="7.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7833333333333" style="3"/>
+    <col min="6" max="6" width="11.7857142857143" style="3"/>
     <col min="7" max="8" width="7.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.7833333333333" style="3"/>
+    <col min="11" max="11" width="11.7857142857143" style="3"/>
     <col min="12" max="13" width="7.375" style="3" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.7833333333333" style="3"/>
+    <col min="16" max="16" width="11.7857142857143" style="3"/>
     <col min="17" max="18" width="7.375" style="3" customWidth="1"/>
     <col min="19" max="19" width="7.5" style="3" customWidth="1"/>
     <col min="20" max="20" width="7.375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.7833333333333" style="3"/>
+    <col min="21" max="21" width="11.7857142857143" style="3"/>
     <col min="22" max="23" width="7.375" style="3" customWidth="1"/>
     <col min="24" max="24" width="7.5" style="3" customWidth="1"/>
     <col min="25" max="25" width="7.375" style="3" customWidth="1"/>
-    <col min="26" max="16375" width="11.7833333333333" style="3"/>
+    <col min="26" max="16375" width="11.7857142857143" style="3"/>
     <col min="16376" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="2:22">
+    <row r="1" s="1" customFormat="1" ht="17.6" spans="2:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="2:25">
+    <row r="2" s="1" customFormat="1" ht="17.6" spans="2:25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="3" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>600.03</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="4" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="5" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>600.01</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="6" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>600.03</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="7" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="8" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="9" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="10" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="11" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="12" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="13" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>600.01</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="14" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="15" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="16" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="17" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="18" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="19" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="20" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="21" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>600.01</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="22" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="23" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="24" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="25" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>600.09</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="26" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="27" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="28" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="29" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="30" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="31" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="32" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="33" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="34" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="35" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="36" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="37" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>600.1</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="38" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="39" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>600.02</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="40" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>600.03</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="41" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="42" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>600.06</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="43" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="44" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="45" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="46" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="47" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="48" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>600.01</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="49" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>600.09</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="50" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>600.11</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="51" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="52" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="53" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>600.05</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="54" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>600.01</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="55" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>600.04</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="56" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="57" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="58" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>600.07</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="59" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>600.09</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="60" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>600.08</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="61" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>600.1</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="15.75" spans="1:25">
+    <row r="62" s="1" customFormat="1" ht="17.6" spans="1:25">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -6560,23 +6560,23 @@
         <v>600.09</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="15.75"/>
-    <row r="68" s="1" customFormat="1" ht="15.75"/>
-    <row r="69" s="1" customFormat="1" ht="15.75"/>
-    <row r="70" s="1" customFormat="1" ht="15.75"/>
-    <row r="71" s="1" customFormat="1" ht="15.75"/>
-    <row r="72" s="1" customFormat="1" ht="15.75"/>
-    <row r="73" s="1" customFormat="1" ht="15.75"/>
-    <row r="74" s="1" customFormat="1" ht="15.75"/>
-    <row r="75" s="1" customFormat="1" ht="15.75"/>
-    <row r="76" s="1" customFormat="1" ht="15.75"/>
-    <row r="77" s="1" customFormat="1" ht="15.75"/>
-    <row r="78" s="1" customFormat="1" ht="15.75"/>
-    <row r="79" s="1" customFormat="1" ht="15.75"/>
-    <row r="80" s="1" customFormat="1" ht="15.75"/>
-    <row r="81" s="1" customFormat="1" ht="15.75"/>
-    <row r="82" s="1" customFormat="1" ht="15.75"/>
-    <row r="83" s="1" customFormat="1" ht="15.75"/>
+    <row r="67" s="1" customFormat="1" ht="17.6"/>
+    <row r="68" s="1" customFormat="1" ht="17.6"/>
+    <row r="69" s="1" customFormat="1" ht="17.6"/>
+    <row r="70" s="1" customFormat="1" ht="17.6"/>
+    <row r="71" s="1" customFormat="1" ht="17.6"/>
+    <row r="72" s="1" customFormat="1" ht="17.6"/>
+    <row r="73" s="1" customFormat="1" ht="17.6"/>
+    <row r="74" s="1" customFormat="1" ht="17.6"/>
+    <row r="75" s="1" customFormat="1" ht="17.6"/>
+    <row r="76" s="1" customFormat="1" ht="17.6"/>
+    <row r="77" s="1" customFormat="1" ht="17.6"/>
+    <row r="78" s="1" customFormat="1" ht="17.6"/>
+    <row r="79" s="1" customFormat="1" ht="17.6"/>
+    <row r="80" s="1" customFormat="1" ht="17.6"/>
+    <row r="81" s="1" customFormat="1" ht="17.6"/>
+    <row r="82" s="1" customFormat="1" ht="17.6"/>
+    <row r="83" s="1" customFormat="1" ht="17.6"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
@@ -6595,46 +6595,46 @@
   <sheetPr/>
   <dimension ref="A1:AR139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="T23" workbookViewId="0">
+      <selection activeCell="AK46" sqref="AK46:AL46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="19.5" style="7" customWidth="1"/>
-    <col min="2" max="7" width="9.14166666666667" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.425" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.075" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.35833333333333" style="7" customWidth="1"/>
-    <col min="11" max="12" width="9.14166666666667" style="7" customWidth="1"/>
-    <col min="13" max="14" width="8.075" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.35833333333333" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.7833333333333" style="7" customWidth="1"/>
+    <col min="2" max="7" width="9.14285714285714" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.4285714285714" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.07142857142857" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.35714285714286" style="7" customWidth="1"/>
+    <col min="11" max="12" width="9.14285714285714" style="7" customWidth="1"/>
+    <col min="13" max="14" width="8.07142857142857" style="7" customWidth="1"/>
+    <col min="15" max="15" width="8.35714285714286" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.7857142857143" style="7" customWidth="1"/>
     <col min="17" max="17" width="12" style="7" customWidth="1"/>
-    <col min="18" max="18" width="9.14166666666667" style="7" customWidth="1"/>
-    <col min="19" max="19" width="9.575" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.14285714285714" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9.57142857142857" style="7" customWidth="1"/>
     <col min="20" max="20" width="10.375" style="7"/>
-    <col min="21" max="22" width="8.075" style="7" customWidth="1"/>
-    <col min="23" max="23" width="8.35833333333333" style="7" customWidth="1"/>
-    <col min="24" max="24" width="12.7833333333333" style="7" customWidth="1"/>
+    <col min="21" max="22" width="8.07142857142857" style="7" customWidth="1"/>
+    <col min="23" max="23" width="8.35714285714286" style="7" customWidth="1"/>
+    <col min="24" max="24" width="12.7857142857143" style="7" customWidth="1"/>
     <col min="25" max="25" width="12" style="7" customWidth="1"/>
-    <col min="26" max="26" width="9.14166666666667" style="7" customWidth="1"/>
-    <col min="27" max="27" width="9.575" style="7" customWidth="1"/>
+    <col min="26" max="26" width="9.14285714285714" style="7" customWidth="1"/>
+    <col min="27" max="27" width="9.57142857142857" style="7" customWidth="1"/>
     <col min="28" max="28" width="9" style="7"/>
-    <col min="29" max="30" width="8.075" style="7" customWidth="1"/>
-    <col min="31" max="31" width="8.35833333333333" style="7" customWidth="1"/>
-    <col min="32" max="32" width="12.7833333333333" style="7" customWidth="1"/>
+    <col min="29" max="30" width="8.07142857142857" style="7" customWidth="1"/>
+    <col min="31" max="31" width="8.35714285714286" style="7" customWidth="1"/>
+    <col min="32" max="32" width="12.7857142857143" style="7" customWidth="1"/>
     <col min="33" max="33" width="12" style="7" customWidth="1"/>
-    <col min="34" max="34" width="9.14166666666667" style="7" customWidth="1"/>
-    <col min="35" max="35" width="9.575" style="7" customWidth="1"/>
+    <col min="34" max="34" width="9.14285714285714" style="7" customWidth="1"/>
+    <col min="35" max="35" width="9.57142857142857" style="7" customWidth="1"/>
     <col min="36" max="36" width="9" style="7"/>
-    <col min="37" max="38" width="8.075" style="7" customWidth="1"/>
-    <col min="39" max="39" width="8.35833333333333" style="7" customWidth="1"/>
-    <col min="40" max="40" width="14.2166666666667" style="7" customWidth="1"/>
-    <col min="41" max="41" width="12.7833333333333" style="7" customWidth="1"/>
+    <col min="37" max="38" width="8.07142857142857" style="7" customWidth="1"/>
+    <col min="39" max="39" width="8.35714285714286" style="7" customWidth="1"/>
+    <col min="40" max="40" width="14.2142857142857" style="7" customWidth="1"/>
+    <col min="41" max="41" width="12.7857142857143" style="7" customWidth="1"/>
     <col min="42" max="42" width="12" style="7" customWidth="1"/>
-    <col min="43" max="43" width="9.14166666666667" style="7" customWidth="1"/>
-    <col min="44" max="44" width="9.575" style="7" customWidth="1"/>
+    <col min="43" max="43" width="9.14285714285714" style="7" customWidth="1"/>
+    <col min="44" max="44" width="9.57142857142857" style="7" customWidth="1"/>
     <col min="45" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -11825,10 +11825,10 @@
         <v>5037</v>
       </c>
       <c r="AK46" s="5">
-        <v>164.2</v>
+        <v>163.8</v>
       </c>
       <c r="AL46" s="5">
-        <v>164.2</v>
+        <v>163.8</v>
       </c>
       <c r="AM46" s="5">
         <v>0</v>
@@ -14168,7 +14168,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -14213,7 +14213,7 @@
     <col min="43" max="43" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75" spans="1:43">
+    <row r="2" ht="17.6" spans="1:43">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -14330,7 +14330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:43">
+    <row r="3" ht="17.6" spans="1:43">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:43">
+    <row r="4" ht="17.6" spans="1:43">
       <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:43">
+    <row r="5" ht="17.6" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:43">
+    <row r="6" ht="17.6" spans="1:43">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:43">
+    <row r="7" ht="17.6" spans="1:43">
       <c r="A7" s="1" t="s">
         <v>155</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:43">
+    <row r="8" ht="17.6" spans="1:43">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:43">
+    <row r="9" ht="17.6" spans="1:43">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:43">
+    <row r="10" ht="17.6" spans="1:43">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:43">
+    <row r="11" ht="17.6" spans="1:43">
       <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:43">
+    <row r="12" ht="17.6" spans="1:43">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:43">
+    <row r="13" ht="17.6" spans="1:43">
       <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:43">
+    <row r="14" ht="17.6" spans="1:43">
       <c r="A14" s="1" t="s">
         <v>183</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:43">
+    <row r="15" ht="17.6" spans="1:43">
       <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:43">
+    <row r="16" ht="17.6" spans="1:43">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:43">
+    <row r="17" ht="17.6" spans="1:43">
       <c r="A17" s="1" t="s">
         <v>195</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:43">
+    <row r="18" ht="17.6" spans="1:43">
       <c r="A18" s="1" t="s">
         <v>199</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:43">
+    <row r="19" ht="17.6" spans="1:43">
       <c r="A19" s="1" t="s">
         <v>203</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:43">
+    <row r="20" ht="17.6" spans="1:43">
       <c r="A20" s="1" t="s">
         <v>207</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:43">
+    <row r="21" ht="17.6" spans="1:43">
       <c r="A21" s="1" t="s">
         <v>211</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:43">
+    <row r="22" ht="17.6" spans="1:43">
       <c r="A22" s="1" t="s">
         <v>215</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:43">
+    <row r="23" ht="17.6" spans="1:43">
       <c r="A23" s="1" t="s">
         <v>219</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:43">
+    <row r="24" ht="17.6" spans="1:43">
       <c r="A24" s="1" t="s">
         <v>223</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:43">
+    <row r="25" ht="17.6" spans="1:43">
       <c r="A25" s="1" t="s">
         <v>227</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:43">
+    <row r="26" ht="17.6" spans="1:43">
       <c r="A26" s="1" t="s">
         <v>231</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:43">
+    <row r="27" ht="17.6" spans="1:43">
       <c r="A27" s="1" t="s">
         <v>235</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:43">
+    <row r="28" ht="17.6" spans="1:43">
       <c r="A28" s="1" t="s">
         <v>239</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="1:43">
+    <row r="29" ht="17.6" spans="1:43">
       <c r="A29" s="1" t="s">
         <v>243</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:43">
+    <row r="30" ht="17.6" spans="1:43">
       <c r="A30" s="1" t="s">
         <v>247</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:43">
+    <row r="31" ht="17.6" spans="1:43">
       <c r="A31" s="1" t="s">
         <v>251</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:43">
+    <row r="32" ht="17.6" spans="1:43">
       <c r="A32" s="1" t="s">
         <v>255</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:43">
+    <row r="33" ht="17.6" spans="1:43">
       <c r="A33" s="1" t="s">
         <v>259</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:43">
+    <row r="34" ht="17.6" spans="1:43">
       <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="1:43">
+    <row r="35" ht="17.6" spans="1:43">
       <c r="A35" s="1" t="s">
         <v>267</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:43">
+    <row r="36" ht="17.6" spans="1:43">
       <c r="A36" s="1" t="s">
         <v>271</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:43">
+    <row r="37" ht="17.6" spans="1:43">
       <c r="A37" s="1" t="s">
         <v>275</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="1:43">
+    <row r="38" ht="17.6" spans="1:43">
       <c r="A38" s="1" t="s">
         <v>279</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="1:43">
+    <row r="39" ht="17.6" spans="1:43">
       <c r="A39" s="1" t="s">
         <v>283</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="1:43">
+    <row r="40" ht="17.6" spans="1:43">
       <c r="A40" s="1" t="s">
         <v>287</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="1:43">
+    <row r="41" ht="17.6" spans="1:43">
       <c r="A41" s="1" t="s">
         <v>291</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="1:43">
+    <row r="42" ht="17.6" spans="1:43">
       <c r="A42" s="1" t="s">
         <v>295</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:43">
+    <row r="43" ht="17.6" spans="1:43">
       <c r="A43" s="1" t="s">
         <v>299</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="1:43">
+    <row r="44" ht="17.6" spans="1:43">
       <c r="A44" s="1" t="s">
         <v>303</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="1:43">
+    <row r="45" ht="17.6" spans="1:43">
       <c r="A45" s="1" t="s">
         <v>307</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="1:43">
+    <row r="46" ht="17.6" spans="1:43">
       <c r="A46" s="1" t="s">
         <v>311</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="1:43">
+    <row r="47" ht="17.6" spans="1:43">
       <c r="A47" s="1" t="s">
         <v>315</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="1:43">
+    <row r="48" ht="17.6" spans="1:43">
       <c r="A48" s="1" t="s">
         <v>319</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="1:43">
+    <row r="49" ht="17.6" spans="1:43">
       <c r="A49" s="1" t="s">
         <v>323</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="1:43">
+    <row r="50" ht="17.6" spans="1:43">
       <c r="A50" s="1" t="s">
         <v>327</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:43">
+    <row r="51" ht="17.6" spans="1:43">
       <c r="A51" s="1" t="s">
         <v>331</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="1:43">
+    <row r="52" ht="17.6" spans="1:43">
       <c r="A52" s="1" t="s">
         <v>335</v>
       </c>
@@ -20580,7 +20580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="1:43">
+    <row r="53" ht="17.6" spans="1:43">
       <c r="A53" s="1" t="s">
         <v>339</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:43">
+    <row r="54" ht="17.6" spans="1:43">
       <c r="A54" s="1" t="s">
         <v>343</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="15.75" spans="1:43">
+    <row r="55" ht="17.6" spans="1:43">
       <c r="A55" s="1" t="s">
         <v>347</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" ht="15.75" spans="1:43">
+    <row r="56" ht="17.6" spans="1:43">
       <c r="A56" s="1" t="s">
         <v>351</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="15.75" spans="1:43">
+    <row r="57" ht="17.6" spans="1:43">
       <c r="A57" s="1" t="s">
         <v>355</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" ht="15.75" spans="1:43">
+    <row r="58" ht="17.6" spans="1:43">
       <c r="A58" s="1" t="s">
         <v>359</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="1:43">
+    <row r="59" ht="17.6" spans="1:43">
       <c r="A59" s="1" t="s">
         <v>363</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="1:43">
+    <row r="60" ht="17.6" spans="1:43">
       <c r="A60" s="1" t="s">
         <v>367</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" ht="15.75" spans="1:43">
+    <row r="61" ht="17.6" spans="1:43">
       <c r="A61" s="1" t="s">
         <v>371</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" ht="15.75" spans="1:43">
+    <row r="62" ht="17.6" spans="1:43">
       <c r="A62" s="1" t="s">
         <v>375</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" ht="15.75" spans="1:43">
+    <row r="63" ht="17.6" spans="1:43">
       <c r="A63" s="1" t="s">
         <v>379</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" ht="15.75" spans="1:43">
+    <row r="64" ht="17.6" spans="1:43">
       <c r="A64" s="1" t="s">
         <v>383</v>
       </c>
@@ -22081,7 +22081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" ht="15.75" spans="1:43">
+    <row r="65" ht="17.6" spans="1:43">
       <c r="A65" s="1" t="s">
         <v>387</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="1:43">
+    <row r="66" ht="17.6" spans="1:43">
       <c r="A66" s="1" t="s">
         <v>391</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" ht="15.75" spans="1:43">
+    <row r="67" ht="17.6" spans="1:43">
       <c r="A67" s="1" t="s">
         <v>395</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" ht="15.75" spans="1:43">
+    <row r="68" ht="17.6" spans="1:43">
       <c r="A68" s="1" t="s">
         <v>399</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" ht="15.75" spans="1:43">
+    <row r="69" ht="17.6" spans="1:43">
       <c r="A69" s="1" t="s">
         <v>403</v>
       </c>
@@ -22706,7 +22706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" ht="15.75" spans="1:43">
+    <row r="70" ht="17.6" spans="1:43">
       <c r="A70" s="1" t="s">
         <v>407</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" ht="15.75" spans="1:43">
+    <row r="71" ht="17.6" spans="1:43">
       <c r="A71" s="1" t="s">
         <v>411</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" ht="15.75" spans="1:43">
+    <row r="72" ht="17.6" spans="1:43">
       <c r="A72" s="1" t="s">
         <v>415</v>
       </c>
@@ -23081,7 +23081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" ht="15.75" spans="1:43">
+    <row r="73" ht="17.6" spans="1:43">
       <c r="A73" s="1" t="s">
         <v>419</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" ht="15.75" spans="1:43">
+    <row r="74" ht="17.6" spans="1:43">
       <c r="A74" s="1" t="s">
         <v>423</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="1:43">
+    <row r="75" ht="17.6" spans="1:43">
       <c r="A75" s="1" t="s">
         <v>427</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="15.75" spans="1:43">
+    <row r="76" ht="17.6" spans="1:43">
       <c r="A76" s="1" t="s">
         <v>431</v>
       </c>
@@ -23581,7 +23581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="15.75" spans="1:43">
+    <row r="77" ht="17.6" spans="1:43">
       <c r="A77" s="1" t="s">
         <v>435</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="15.75" spans="1:43">
+    <row r="78" ht="17.6" spans="1:43">
       <c r="A78" s="1" t="s">
         <v>439</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="15.75" spans="1:43">
+    <row r="79" ht="17.6" spans="1:43">
       <c r="A79" s="1" t="s">
         <v>443</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="15.75" spans="1:43">
+    <row r="80" ht="17.6" spans="1:43">
       <c r="A80" s="1" t="s">
         <v>447</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="15.75" spans="1:43">
+    <row r="81" ht="17.6" spans="1:43">
       <c r="A81" s="1" t="s">
         <v>451</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="15.75" spans="1:43">
+    <row r="82" ht="17.6" spans="1:43">
       <c r="A82" s="1" t="s">
         <v>455</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:43">
+    <row r="83" ht="17.6" spans="1:43">
       <c r="A83" s="1" t="s">
         <v>459</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="22:31">
+    <row r="84" ht="17.6" spans="22:31">
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
@@ -24468,7 +24468,7 @@
       <c r="AD84" s="6"/>
       <c r="AE84" s="6"/>
     </row>
-    <row r="85" ht="14.25" spans="22:31">
+    <row r="85" ht="17.6" spans="22:31">
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
@@ -24480,7 +24480,7 @@
       <c r="AD85" s="6"/>
       <c r="AE85" s="6"/>
     </row>
-    <row r="86" ht="14.25" spans="22:31">
+    <row r="86" ht="17.6" spans="22:31">
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
@@ -24492,7 +24492,7 @@
       <c r="AD86" s="6"/>
       <c r="AE86" s="6"/>
     </row>
-    <row r="87" ht="14.25" spans="22:31">
+    <row r="87" ht="17.6" spans="22:31">
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
@@ -24504,7 +24504,7 @@
       <c r="AD87" s="6"/>
       <c r="AE87" s="6"/>
     </row>
-    <row r="88" ht="14.25" spans="22:31">
+    <row r="88" ht="17.6" spans="22:31">
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
@@ -24516,7 +24516,7 @@
       <c r="AD88" s="6"/>
       <c r="AE88" s="6"/>
     </row>
-    <row r="89" ht="14.25" spans="22:31">
+    <row r="89" ht="17.6" spans="22:31">
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
@@ -24528,7 +24528,7 @@
       <c r="AD89" s="6"/>
       <c r="AE89" s="6"/>
     </row>
-    <row r="90" ht="14.25" spans="22:31">
+    <row r="90" ht="17.6" spans="22:31">
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
@@ -24540,7 +24540,7 @@
       <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
     </row>
-    <row r="91" ht="14.25" spans="22:31">
+    <row r="91" ht="17.6" spans="22:31">
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
@@ -24552,7 +24552,7 @@
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
     </row>
-    <row r="92" ht="14.25" spans="22:31">
+    <row r="92" ht="17.6" spans="22:31">
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
@@ -24564,7 +24564,7 @@
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
     </row>
-    <row r="93" ht="14.25" spans="22:31">
+    <row r="93" ht="17.6" spans="22:31">
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
@@ -24576,7 +24576,7 @@
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
     </row>
-    <row r="94" ht="14.25" spans="22:31">
+    <row r="94" ht="17.6" spans="22:31">
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
@@ -24588,7 +24588,7 @@
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
     </row>
-    <row r="95" ht="14.25" spans="22:31">
+    <row r="95" ht="17.6" spans="22:31">
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
@@ -24600,7 +24600,7 @@
       <c r="AD95" s="6"/>
       <c r="AE95" s="6"/>
     </row>
-    <row r="96" ht="14.25" spans="22:31">
+    <row r="96" ht="17.6" spans="22:31">
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
@@ -24612,7 +24612,7 @@
       <c r="AD96" s="6"/>
       <c r="AE96" s="6"/>
     </row>
-    <row r="97" ht="14.25" spans="22:31">
+    <row r="97" ht="17.6" spans="22:31">
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
@@ -24624,7 +24624,7 @@
       <c r="AD97" s="6"/>
       <c r="AE97" s="6"/>
     </row>
-    <row r="98" ht="14.25" spans="22:31">
+    <row r="98" ht="17.6" spans="22:31">
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
@@ -24636,7 +24636,7 @@
       <c r="AD98" s="6"/>
       <c r="AE98" s="6"/>
     </row>
-    <row r="99" ht="14.25" spans="22:31">
+    <row r="99" ht="17.6" spans="22:31">
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
@@ -24648,7 +24648,7 @@
       <c r="AD99" s="6"/>
       <c r="AE99" s="6"/>
     </row>
-    <row r="100" ht="14.25" spans="22:31">
+    <row r="100" ht="17.6" spans="22:31">
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
@@ -24660,7 +24660,7 @@
       <c r="AD100" s="6"/>
       <c r="AE100" s="6"/>
     </row>
-    <row r="101" ht="14.25" spans="22:31">
+    <row r="101" ht="17.6" spans="22:31">
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
@@ -24672,7 +24672,7 @@
       <c r="AD101" s="6"/>
       <c r="AE101" s="6"/>
     </row>
-    <row r="102" ht="14.25" spans="22:31">
+    <row r="102" ht="17.6" spans="22:31">
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
@@ -24684,7 +24684,7 @@
       <c r="AD102" s="6"/>
       <c r="AE102" s="6"/>
     </row>
-    <row r="103" ht="14.25" spans="22:31">
+    <row r="103" ht="17.6" spans="22:31">
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
@@ -24696,7 +24696,7 @@
       <c r="AD103" s="6"/>
       <c r="AE103" s="6"/>
     </row>
-    <row r="104" ht="14.25" spans="22:31">
+    <row r="104" ht="17.6" spans="22:31">
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
       <c r="X104" s="6"/>
@@ -24708,7 +24708,7 @@
       <c r="AD104" s="6"/>
       <c r="AE104" s="6"/>
     </row>
-    <row r="105" ht="14.25" spans="22:31">
+    <row r="105" ht="17.6" spans="22:31">
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
       <c r="X105" s="6"/>
@@ -24720,7 +24720,7 @@
       <c r="AD105" s="6"/>
       <c r="AE105" s="6"/>
     </row>
-    <row r="106" ht="14.25" spans="22:31">
+    <row r="106" ht="17.6" spans="22:31">
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
       <c r="X106" s="6"/>
@@ -24732,7 +24732,7 @@
       <c r="AD106" s="6"/>
       <c r="AE106" s="6"/>
     </row>
-    <row r="107" ht="14.25" spans="22:31">
+    <row r="107" ht="17.6" spans="22:31">
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
       <c r="X107" s="6"/>
@@ -24744,7 +24744,7 @@
       <c r="AD107" s="6"/>
       <c r="AE107" s="6"/>
     </row>
-    <row r="108" ht="14.25" spans="22:31">
+    <row r="108" ht="17.6" spans="22:31">
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
       <c r="X108" s="6"/>
@@ -24756,7 +24756,7 @@
       <c r="AD108" s="6"/>
       <c r="AE108" s="6"/>
     </row>
-    <row r="109" ht="14.25" spans="22:31">
+    <row r="109" ht="17.6" spans="22:31">
       <c r="V109" s="6"/>
       <c r="W109" s="6"/>
       <c r="X109" s="6"/>
@@ -24768,7 +24768,7 @@
       <c r="AD109" s="6"/>
       <c r="AE109" s="6"/>
     </row>
-    <row r="110" ht="14.25" spans="22:31">
+    <row r="110" ht="17.6" spans="22:31">
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
       <c r="X110" s="6"/>
@@ -24780,7 +24780,7 @@
       <c r="AD110" s="6"/>
       <c r="AE110" s="6"/>
     </row>
-    <row r="111" ht="14.25" spans="22:31">
+    <row r="111" ht="17.6" spans="22:31">
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
       <c r="X111" s="6"/>
@@ -24792,7 +24792,7 @@
       <c r="AD111" s="6"/>
       <c r="AE111" s="6"/>
     </row>
-    <row r="112" ht="14.25" spans="22:31">
+    <row r="112" ht="17.6" spans="22:31">
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
       <c r="X112" s="6"/>
@@ -24804,7 +24804,7 @@
       <c r="AD112" s="6"/>
       <c r="AE112" s="6"/>
     </row>
-    <row r="113" ht="14.25" spans="22:31">
+    <row r="113" ht="17.6" spans="22:31">
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
       <c r="X113" s="6"/>
@@ -24816,7 +24816,7 @@
       <c r="AD113" s="6"/>
       <c r="AE113" s="6"/>
     </row>
-    <row r="114" ht="14.25" spans="22:31">
+    <row r="114" ht="17.6" spans="22:31">
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
       <c r="X114" s="6"/>
@@ -24828,7 +24828,7 @@
       <c r="AD114" s="6"/>
       <c r="AE114" s="6"/>
     </row>
-    <row r="115" ht="14.25" spans="22:31">
+    <row r="115" ht="17.6" spans="22:31">
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
       <c r="X115" s="6"/>
@@ -24840,7 +24840,7 @@
       <c r="AD115" s="6"/>
       <c r="AE115" s="6"/>
     </row>
-    <row r="116" ht="14.25" spans="22:31">
+    <row r="116" ht="17.6" spans="22:31">
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
@@ -24852,7 +24852,7 @@
       <c r="AD116" s="6"/>
       <c r="AE116" s="6"/>
     </row>
-    <row r="117" ht="14.25" spans="22:31">
+    <row r="117" ht="17.6" spans="22:31">
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
       <c r="X117" s="6"/>
@@ -24864,7 +24864,7 @@
       <c r="AD117" s="6"/>
       <c r="AE117" s="6"/>
     </row>
-    <row r="118" ht="14.25" spans="22:31">
+    <row r="118" ht="17.6" spans="22:31">
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
@@ -24876,7 +24876,7 @@
       <c r="AD118" s="6"/>
       <c r="AE118" s="6"/>
     </row>
-    <row r="119" ht="14.25" spans="22:31">
+    <row r="119" ht="17.6" spans="22:31">
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
       <c r="X119" s="6"/>
@@ -24888,7 +24888,7 @@
       <c r="AD119" s="6"/>
       <c r="AE119" s="6"/>
     </row>
-    <row r="120" ht="14.25" spans="22:31">
+    <row r="120" ht="17.6" spans="22:31">
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
       <c r="X120" s="6"/>
@@ -24900,7 +24900,7 @@
       <c r="AD120" s="6"/>
       <c r="AE120" s="6"/>
     </row>
-    <row r="121" ht="14.25" spans="22:31">
+    <row r="121" ht="17.6" spans="22:31">
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
       <c r="X121" s="6"/>
@@ -24912,7 +24912,7 @@
       <c r="AD121" s="6"/>
       <c r="AE121" s="6"/>
     </row>
-    <row r="122" ht="14.25" spans="22:31">
+    <row r="122" ht="17.6" spans="22:31">
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
@@ -24924,7 +24924,7 @@
       <c r="AD122" s="6"/>
       <c r="AE122" s="6"/>
     </row>
-    <row r="123" ht="14.25" spans="22:31">
+    <row r="123" ht="17.6" spans="22:31">
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
       <c r="X123" s="6"/>
@@ -24936,7 +24936,7 @@
       <c r="AD123" s="6"/>
       <c r="AE123" s="6"/>
     </row>
-    <row r="124" ht="14.25" spans="22:31">
+    <row r="124" ht="17.6" spans="22:31">
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
       <c r="X124" s="6"/>
@@ -24948,7 +24948,7 @@
       <c r="AD124" s="6"/>
       <c r="AE124" s="6"/>
     </row>
-    <row r="125" ht="14.25" spans="22:31">
+    <row r="125" ht="17.6" spans="22:31">
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
       <c r="X125" s="6"/>
@@ -24960,7 +24960,7 @@
       <c r="AD125" s="6"/>
       <c r="AE125" s="6"/>
     </row>
-    <row r="126" ht="14.25" spans="22:31">
+    <row r="126" ht="17.6" spans="22:31">
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
       <c r="X126" s="6"/>
@@ -24972,7 +24972,7 @@
       <c r="AD126" s="6"/>
       <c r="AE126" s="6"/>
     </row>
-    <row r="127" ht="14.25" spans="22:31">
+    <row r="127" ht="17.6" spans="22:31">
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
       <c r="X127" s="6"/>
@@ -24984,7 +24984,7 @@
       <c r="AD127" s="6"/>
       <c r="AE127" s="6"/>
     </row>
-    <row r="128" ht="14.25" spans="22:31">
+    <row r="128" ht="17.6" spans="22:31">
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
       <c r="X128" s="6"/>
@@ -24996,7 +24996,7 @@
       <c r="AD128" s="6"/>
       <c r="AE128" s="6"/>
     </row>
-    <row r="129" ht="14.25" spans="22:31">
+    <row r="129" ht="17.6" spans="22:31">
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
       <c r="X129" s="6"/>
@@ -25008,7 +25008,7 @@
       <c r="AD129" s="6"/>
       <c r="AE129" s="6"/>
     </row>
-    <row r="130" ht="14.25" spans="22:31">
+    <row r="130" ht="17.6" spans="22:31">
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
       <c r="X130" s="6"/>
@@ -25020,7 +25020,7 @@
       <c r="AD130" s="6"/>
       <c r="AE130" s="6"/>
     </row>
-    <row r="131" ht="14.25" spans="22:31">
+    <row r="131" ht="17.6" spans="22:31">
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
       <c r="X131" s="6"/>
@@ -25032,7 +25032,7 @@
       <c r="AD131" s="6"/>
       <c r="AE131" s="6"/>
     </row>
-    <row r="132" ht="14.25" spans="22:31">
+    <row r="132" ht="17.6" spans="22:31">
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
       <c r="X132" s="6"/>
@@ -25044,7 +25044,7 @@
       <c r="AD132" s="6"/>
       <c r="AE132" s="6"/>
     </row>
-    <row r="133" ht="14.25" spans="22:31">
+    <row r="133" ht="17.6" spans="22:31">
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
       <c r="X133" s="6"/>
@@ -25056,7 +25056,7 @@
       <c r="AD133" s="6"/>
       <c r="AE133" s="6"/>
     </row>
-    <row r="134" ht="14.25" spans="22:31">
+    <row r="134" ht="17.6" spans="22:31">
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
       <c r="X134" s="6"/>
@@ -25068,7 +25068,7 @@
       <c r="AD134" s="6"/>
       <c r="AE134" s="6"/>
     </row>
-    <row r="135" ht="14.25" spans="22:31">
+    <row r="135" ht="17.6" spans="22:31">
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
       <c r="X135" s="6"/>
@@ -25080,7 +25080,7 @@
       <c r="AD135" s="6"/>
       <c r="AE135" s="6"/>
     </row>
-    <row r="136" ht="14.25" spans="22:31">
+    <row r="136" ht="17.6" spans="22:31">
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
       <c r="X136" s="6"/>
@@ -25092,7 +25092,7 @@
       <c r="AD136" s="6"/>
       <c r="AE136" s="6"/>
     </row>
-    <row r="137" ht="14.25" spans="22:31">
+    <row r="137" ht="17.6" spans="22:31">
       <c r="V137" s="6"/>
       <c r="W137" s="6"/>
       <c r="X137" s="6"/>
